--- a/plots/basic_stats/two_var_stats/allmus_size_vs_governance.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_size_vs_governance.xlsx
@@ -365,67 +365,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Cadw</t>
+          <t>Government-Cadw</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Local Authority</t>
+          <t>Government-Local_Authority</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>/Government/National</t>
+          <t>Government-National</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Other</t>
+          <t>Government-Other</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/English Heritage</t>
+          <t>Independent-English_Heritage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Historic Environment Scotland</t>
+          <t>Independent-Historic_Environment_Scotland</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust</t>
+          <t>Independent-National_Trust</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust for Scotland</t>
+          <t>Independent-National_Trust_for_Scotland</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Not for profit</t>
+          <t>Independent-Not_for_profit</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Private</t>
+          <t>Independent-Private</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Unknown</t>
+          <t>Independent-Unknown</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>/University</t>
+          <t>University</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>/Unknown</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -439,10 +439,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -454,25 +454,25 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>7</v>
       </c>
       <c r="J2">
-        <v>1132</v>
+        <v>1180</v>
       </c>
       <c r="K2">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="L2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M2">
         <v>46</v>
       </c>
       <c r="N2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -485,40 +485,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>27</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
         <v>44</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>91</v>
@@ -552,10 +552,10 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="K4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -623,40 +623,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="K6">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
